--- a/medicine/Psychotrope/Albana_di_Romagna_spumante/Albana_di_Romagna_spumante.xlsx
+++ b/medicine/Psychotrope/Albana_di_Romagna_spumante/Albana_di_Romagna_spumante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Albana di Romagna spumante est un vin mousseux italien de la région d'Émilie-Romagne doté d'une appellation DOCG depuis le 13 avril 1987. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent dans les provinces de Bologne, Forlì-Cesena et Ravenne  dans les communes Borgo Tossignano, Casalfiumanese, Castel San Pietro Terme, Dozza, Fontanelice, Castrocaro Terme e Terra del Sole, Longiano, Meldola, Montiano, Roncofreddo, Brisighella, Casola Valsenio  et Riolo Terme  ainsi qu'en partie dans les communes Imola, Ozzano dell'Emilia, Césène, Forlì, Forlimpopoli, Savignano sul Rubicone, Castel Bolognese et Faenza.
 Voir aussi les articles  Albana di Romagna, Albana di Romagna amabile, Albana di Romagna dolce, Albana di Romagna passito, Albana di Romagna passito riserva et Albana di Romagna secco.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille  avec des reflets de jaune doré après vieillissement
 odeur : légèrement parfumé, caractéristique avec des arômes d'amande, de pêche et d'agrumes
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles </t>
